--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Pdgfrb</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.0967316373595</v>
+        <v>43.37787633333334</v>
       </c>
       <c r="H2">
-        <v>43.0967316373595</v>
+        <v>130.133629</v>
       </c>
       <c r="I2">
-        <v>0.8450881206465302</v>
+        <v>0.7368947826495649</v>
       </c>
       <c r="J2">
-        <v>0.8450881206465302</v>
+        <v>0.7461349005127409</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.66892154094224</v>
+        <v>9.164182666666667</v>
       </c>
       <c r="N2">
-        <v>7.66892154094224</v>
+        <v>27.492548</v>
       </c>
       <c r="O2">
-        <v>0.03427007228188779</v>
+        <v>0.03970753467660135</v>
       </c>
       <c r="P2">
-        <v>0.03427007228188779</v>
+        <v>0.04986509649035763</v>
       </c>
       <c r="Q2">
-        <v>330.5054535979532</v>
+        <v>397.5227824107436</v>
       </c>
       <c r="R2">
-        <v>330.5054535979532</v>
+        <v>3577.705041696692</v>
       </c>
       <c r="S2">
-        <v>0.0289612309791213</v>
+        <v>0.02926027513506421</v>
       </c>
       <c r="T2">
-        <v>0.0289612309791213</v>
+        <v>0.03720608880889122</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.0967316373595</v>
+        <v>43.37787633333334</v>
       </c>
       <c r="H3">
-        <v>43.0967316373595</v>
+        <v>130.133629</v>
       </c>
       <c r="I3">
-        <v>0.8450881206465302</v>
+        <v>0.7368947826495649</v>
       </c>
       <c r="J3">
-        <v>0.8450881206465302</v>
+        <v>0.7461349005127409</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.94191737041329</v>
+        <v>80.32428</v>
       </c>
       <c r="N3">
-        <v>74.94191737041329</v>
+        <v>240.97284</v>
       </c>
       <c r="O3">
-        <v>0.3348925805950776</v>
+        <v>0.3480374900289019</v>
       </c>
       <c r="P3">
-        <v>0.3348925805950776</v>
+        <v>0.437068761984357</v>
       </c>
       <c r="Q3">
-        <v>3229.751701301872</v>
+        <v>3484.296684404041</v>
       </c>
       <c r="R3">
-        <v>3229.751701301872</v>
+        <v>31358.67015963636</v>
       </c>
       <c r="S3">
-        <v>0.2830137415535607</v>
+        <v>0.2564670105687478</v>
       </c>
       <c r="T3">
-        <v>0.2830137415535607</v>
+        <v>0.326112257240425</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.0967316373595</v>
+        <v>43.37787633333334</v>
       </c>
       <c r="H4">
-        <v>43.0967316373595</v>
+        <v>130.133629</v>
       </c>
       <c r="I4">
-        <v>0.8450881206465302</v>
+        <v>0.7368947826495649</v>
       </c>
       <c r="J4">
-        <v>0.8450881206465302</v>
+        <v>0.7461349005127409</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.146046409154184</v>
+        <v>0.118916</v>
       </c>
       <c r="N4">
-        <v>0.146046409154184</v>
+        <v>0.356748</v>
       </c>
       <c r="O4">
-        <v>0.0006526368761896478</v>
+        <v>0.0005152517540683451</v>
       </c>
       <c r="P4">
-        <v>0.0006526368761896478</v>
+        <v>0.0006470580116016202</v>
       </c>
       <c r="Q4">
-        <v>6.294122901917871</v>
+        <v>5.158323542054666</v>
       </c>
       <c r="R4">
-        <v>6.294122901917871</v>
+        <v>46.424911878492</v>
       </c>
       <c r="S4">
-        <v>0.0005515356711637316</v>
+        <v>0.0003796863293240002</v>
       </c>
       <c r="T4">
-        <v>0.0005515356711637316</v>
+        <v>0.0004827925651123468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.0967316373595</v>
+        <v>43.37787633333334</v>
       </c>
       <c r="H5">
-        <v>43.0967316373595</v>
+        <v>130.133629</v>
       </c>
       <c r="I5">
-        <v>0.8450881206465302</v>
+        <v>0.7368947826495649</v>
       </c>
       <c r="J5">
-        <v>0.8450881206465302</v>
+        <v>0.7461349005127409</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>141.022086543386</v>
+        <v>0.1470646666666666</v>
       </c>
       <c r="N5">
-        <v>141.022086543386</v>
+        <v>0.441194</v>
       </c>
       <c r="O5">
-        <v>0.630184710246845</v>
+        <v>0.0006372172580769324</v>
       </c>
       <c r="P5">
-        <v>0.630184710246845</v>
+        <v>0.0008002234416746982</v>
       </c>
       <c r="Q5">
-        <v>6077.591018700792</v>
+        <v>6.379352923669556</v>
       </c>
       <c r="R5">
-        <v>6077.591018700792</v>
+        <v>57.414176313026</v>
       </c>
       <c r="S5">
-        <v>0.5325616124426844</v>
+        <v>0.0004695620728911528</v>
       </c>
       <c r="T5">
-        <v>0.5325616124426844</v>
+        <v>0.0005970746380419141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.08086100311754</v>
+        <v>43.37787633333334</v>
       </c>
       <c r="H6">
-        <v>4.08086100311754</v>
+        <v>130.133629</v>
       </c>
       <c r="I6">
-        <v>0.08002201152429697</v>
+        <v>0.7368947826495649</v>
       </c>
       <c r="J6">
-        <v>0.08002201152429697</v>
+        <v>0.7461349005127409</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.66892154094224</v>
+        <v>141.03759</v>
       </c>
       <c r="N6">
-        <v>7.66892154094224</v>
+        <v>282.07518</v>
       </c>
       <c r="O6">
-        <v>0.03427007228188779</v>
+        <v>0.6111025062823514</v>
       </c>
       <c r="P6">
-        <v>0.03427007228188779</v>
+        <v>0.5116188600720092</v>
       </c>
       <c r="Q6">
-        <v>31.29580285239926</v>
+        <v>6117.91113737137</v>
       </c>
       <c r="R6">
-        <v>31.29580285239926</v>
+        <v>36707.46682422822</v>
       </c>
       <c r="S6">
-        <v>0.002742360119079715</v>
+        <v>0.4503182485435377</v>
       </c>
       <c r="T6">
-        <v>0.002742360119079715</v>
+        <v>0.3817366872602705</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>4.08086100311754</v>
+        <v>0.244247</v>
       </c>
       <c r="H7">
-        <v>4.08086100311754</v>
+        <v>0.732741</v>
       </c>
       <c r="I7">
-        <v>0.08002201152429697</v>
+        <v>0.004149219721932328</v>
       </c>
       <c r="J7">
-        <v>0.08002201152429697</v>
+        <v>0.004201247881411239</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>74.94191737041329</v>
+        <v>9.164182666666667</v>
       </c>
       <c r="N7">
-        <v>74.94191737041329</v>
+        <v>27.492548</v>
       </c>
       <c r="O7">
-        <v>0.3348925805950776</v>
+        <v>0.03970753467660135</v>
       </c>
       <c r="P7">
-        <v>0.3348925805950776</v>
+        <v>0.04986509649035763</v>
       </c>
       <c r="Q7">
-        <v>305.8275480957765</v>
+        <v>2.238324123785334</v>
       </c>
       <c r="R7">
-        <v>305.8275480957765</v>
+        <v>20.144917114068</v>
       </c>
       <c r="S7">
-        <v>0.02679877794378085</v>
+        <v>0.0001647552859894661</v>
       </c>
       <c r="T7">
-        <v>0.02679877794378085</v>
+        <v>0.000209495630986482</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>4.08086100311754</v>
+        <v>0.244247</v>
       </c>
       <c r="H8">
-        <v>4.08086100311754</v>
+        <v>0.732741</v>
       </c>
       <c r="I8">
-        <v>0.08002201152429697</v>
+        <v>0.004149219721932328</v>
       </c>
       <c r="J8">
-        <v>0.08002201152429697</v>
+        <v>0.004201247881411239</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.146046409154184</v>
+        <v>80.32428</v>
       </c>
       <c r="N8">
-        <v>0.146046409154184</v>
+        <v>240.97284</v>
       </c>
       <c r="O8">
-        <v>0.0006526368761896478</v>
+        <v>0.3480374900289019</v>
       </c>
       <c r="P8">
-        <v>0.0006526368761896478</v>
+        <v>0.437068761984357</v>
       </c>
       <c r="Q8">
-        <v>0.5959950957626579</v>
+        <v>19.61896441716</v>
       </c>
       <c r="R8">
-        <v>0.5959950957626579</v>
+        <v>176.57067975444</v>
       </c>
       <c r="S8">
-        <v>5.222531562762917E-05</v>
+        <v>0.001444084017599746</v>
       </c>
       <c r="T8">
-        <v>5.222531562762917E-05</v>
+        <v>0.001836234210317813</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>4.08086100311754</v>
+        <v>0.244247</v>
       </c>
       <c r="H9">
-        <v>4.08086100311754</v>
+        <v>0.732741</v>
       </c>
       <c r="I9">
-        <v>0.08002201152429697</v>
+        <v>0.004149219721932328</v>
       </c>
       <c r="J9">
-        <v>0.08002201152429697</v>
+        <v>0.004201247881411239</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>141.022086543386</v>
+        <v>0.118916</v>
       </c>
       <c r="N9">
-        <v>141.022086543386</v>
+        <v>0.356748</v>
       </c>
       <c r="O9">
-        <v>0.630184710246845</v>
+        <v>0.0005152517540683451</v>
       </c>
       <c r="P9">
-        <v>0.630184710246845</v>
+        <v>0.0006470580116016202</v>
       </c>
       <c r="Q9">
-        <v>575.4915335531707</v>
+        <v>0.02904487625199999</v>
       </c>
       <c r="R9">
-        <v>575.4915335531707</v>
+        <v>0.261403886268</v>
       </c>
       <c r="S9">
-        <v>0.05042864814580877</v>
+        <v>2.137892739740603E-06</v>
       </c>
       <c r="T9">
-        <v>0.05042864814580877</v>
+        <v>2.718451100391476E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.77145649595081</v>
+        <v>0.244247</v>
       </c>
       <c r="H10">
-        <v>1.77145649595081</v>
+        <v>0.732741</v>
       </c>
       <c r="I10">
-        <v>0.03473666758693165</v>
+        <v>0.004149219721932328</v>
       </c>
       <c r="J10">
-        <v>0.03473666758693165</v>
+        <v>0.004201247881411239</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.66892154094224</v>
+        <v>0.1470646666666666</v>
       </c>
       <c r="N10">
-        <v>7.66892154094224</v>
+        <v>0.441194</v>
       </c>
       <c r="O10">
-        <v>0.03427007228188779</v>
+        <v>0.0006372172580769324</v>
       </c>
       <c r="P10">
-        <v>0.03427007228188779</v>
+        <v>0.0008002234416746982</v>
       </c>
       <c r="Q10">
-        <v>13.58516088063923</v>
+        <v>0.03592010363933333</v>
       </c>
       <c r="R10">
-        <v>13.58516088063923</v>
+        <v>0.323280932754</v>
       </c>
       <c r="S10">
-        <v>0.001190428109036057</v>
+        <v>2.64395441436845E-06</v>
       </c>
       <c r="T10">
-        <v>0.001190428109036057</v>
+        <v>3.361937038991436E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.77145649595081</v>
+        <v>0.244247</v>
       </c>
       <c r="H11">
-        <v>1.77145649595081</v>
+        <v>0.732741</v>
       </c>
       <c r="I11">
-        <v>0.03473666758693165</v>
+        <v>0.004149219721932328</v>
       </c>
       <c r="J11">
-        <v>0.03473666758693165</v>
+        <v>0.004201247881411239</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>74.94191737041329</v>
+        <v>141.03759</v>
       </c>
       <c r="N11">
-        <v>74.94191737041329</v>
+        <v>282.07518</v>
       </c>
       <c r="O11">
-        <v>0.3348925805950776</v>
+        <v>0.6111025062823514</v>
       </c>
       <c r="P11">
-        <v>0.3348925805950776</v>
+        <v>0.5116188600720092</v>
       </c>
       <c r="Q11">
-        <v>132.7563463448275</v>
+        <v>34.44800824473</v>
       </c>
       <c r="R11">
-        <v>132.7563463448275</v>
+        <v>206.68804946838</v>
       </c>
       <c r="S11">
-        <v>0.01163305224946093</v>
+        <v>0.002535598571189007</v>
       </c>
       <c r="T11">
-        <v>0.01163305224946093</v>
+        <v>0.002149437651967562</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.77145649595081</v>
+        <v>7.648633666666666</v>
       </c>
       <c r="H12">
-        <v>1.77145649595081</v>
+        <v>22.945901</v>
       </c>
       <c r="I12">
-        <v>0.03473666758693165</v>
+        <v>0.129933475766617</v>
       </c>
       <c r="J12">
-        <v>0.03473666758693165</v>
+        <v>0.1315627458587987</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.146046409154184</v>
+        <v>9.164182666666667</v>
       </c>
       <c r="N12">
-        <v>0.146046409154184</v>
+        <v>27.492548</v>
       </c>
       <c r="O12">
-        <v>0.0006526368761896478</v>
+        <v>0.03970753467660135</v>
       </c>
       <c r="P12">
-        <v>0.0006526368761896478</v>
+        <v>0.04986509649035763</v>
       </c>
       <c r="Q12">
-        <v>0.2587148602064691</v>
+        <v>70.09347607174978</v>
       </c>
       <c r="R12">
-        <v>0.2587148602064691</v>
+        <v>630.8412846457479</v>
       </c>
       <c r="S12">
-        <v>2.267043022317327E-05</v>
+        <v>0.005159337994654286</v>
       </c>
       <c r="T12">
-        <v>2.267043022317327E-05</v>
+        <v>0.006560389016785398</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.77145649595081</v>
+        <v>7.648633666666666</v>
       </c>
       <c r="H13">
-        <v>1.77145649595081</v>
+        <v>22.945901</v>
       </c>
       <c r="I13">
-        <v>0.03473666758693165</v>
+        <v>0.129933475766617</v>
       </c>
       <c r="J13">
-        <v>0.03473666758693165</v>
+        <v>0.1315627458587987</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>141.022086543386</v>
+        <v>80.32428</v>
       </c>
       <c r="N13">
-        <v>141.022086543386</v>
+        <v>240.97284</v>
       </c>
       <c r="O13">
-        <v>0.630184710246845</v>
+        <v>0.3480374900289019</v>
       </c>
       <c r="P13">
-        <v>0.630184710246845</v>
+        <v>0.437068761984357</v>
       </c>
       <c r="Q13">
-        <v>249.8144912798184</v>
+        <v>614.37099225876</v>
       </c>
       <c r="R13">
-        <v>249.8144912798184</v>
+        <v>5529.33893032884</v>
       </c>
       <c r="S13">
-        <v>0.0218905167982115</v>
+        <v>0.04522172077654454</v>
       </c>
       <c r="T13">
-        <v>0.0218905167982115</v>
+        <v>0.05750196645576775</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.04768195522278</v>
+        <v>7.648633666666666</v>
       </c>
       <c r="H14">
-        <v>2.04768195522278</v>
+        <v>22.945901</v>
       </c>
       <c r="I14">
-        <v>0.04015320024224129</v>
+        <v>0.129933475766617</v>
       </c>
       <c r="J14">
-        <v>0.04015320024224129</v>
+        <v>0.1315627458587987</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>7.66892154094224</v>
+        <v>0.118916</v>
       </c>
       <c r="N14">
-        <v>7.66892154094224</v>
+        <v>0.356748</v>
       </c>
       <c r="O14">
-        <v>0.03427007228188779</v>
+        <v>0.0005152517540683451</v>
       </c>
       <c r="P14">
-        <v>0.03427007228188779</v>
+        <v>0.0006470580116016202</v>
       </c>
       <c r="Q14">
-        <v>15.7035122554067</v>
+        <v>0.9095449211053331</v>
       </c>
       <c r="R14">
-        <v>15.7035122554067</v>
+        <v>8.185904289947999</v>
       </c>
       <c r="S14">
-        <v>0.001376053074650723</v>
+        <v>6.694845130094622E-05</v>
       </c>
       <c r="T14">
-        <v>0.001376053074650723</v>
+        <v>8.512872873624361E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.04768195522278</v>
+        <v>7.648633666666666</v>
       </c>
       <c r="H15">
-        <v>2.04768195522278</v>
+        <v>22.945901</v>
       </c>
       <c r="I15">
-        <v>0.04015320024224129</v>
+        <v>0.129933475766617</v>
       </c>
       <c r="J15">
-        <v>0.04015320024224129</v>
+        <v>0.1315627458587987</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>74.94191737041329</v>
+        <v>0.1470646666666666</v>
       </c>
       <c r="N15">
-        <v>74.94191737041329</v>
+        <v>0.441194</v>
       </c>
       <c r="O15">
-        <v>0.3348925805950776</v>
+        <v>0.0006372172580769324</v>
       </c>
       <c r="P15">
-        <v>0.3348925805950776</v>
+        <v>0.0008002234416746982</v>
       </c>
       <c r="Q15">
-        <v>153.4572118891919</v>
+        <v>1.124843760643778</v>
       </c>
       <c r="R15">
-        <v>153.4572118891919</v>
+        <v>10.123593845794</v>
       </c>
       <c r="S15">
-        <v>0.01344700884827508</v>
+        <v>8.279585316040923E-05</v>
       </c>
       <c r="T15">
-        <v>0.01344700884827508</v>
+        <v>0.0001052795932873016</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.04768195522278</v>
+        <v>7.648633666666666</v>
       </c>
       <c r="H16">
-        <v>2.04768195522278</v>
+        <v>22.945901</v>
       </c>
       <c r="I16">
-        <v>0.04015320024224129</v>
+        <v>0.129933475766617</v>
       </c>
       <c r="J16">
-        <v>0.04015320024224129</v>
+        <v>0.1315627458587987</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.146046409154184</v>
+        <v>141.03759</v>
       </c>
       <c r="N16">
-        <v>0.146046409154184</v>
+        <v>282.07518</v>
       </c>
       <c r="O16">
-        <v>0.0006526368761896478</v>
+        <v>0.6111025062823514</v>
       </c>
       <c r="P16">
-        <v>0.0006526368761896478</v>
+        <v>0.5116188600720092</v>
       </c>
       <c r="Q16">
-        <v>0.2990565966501055</v>
+        <v>1078.74485913953</v>
       </c>
       <c r="R16">
-        <v>0.2990565966501055</v>
+        <v>6472.469154837179</v>
       </c>
       <c r="S16">
-        <v>2.620545917511376E-05</v>
+        <v>0.07940267269095683</v>
       </c>
       <c r="T16">
-        <v>2.620545917511376E-05</v>
+        <v>0.06730998206422206</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.408032666666666</v>
+      </c>
+      <c r="H17">
+        <v>16.224098</v>
+      </c>
+      <c r="I17">
+        <v>0.0918705891879434</v>
+      </c>
+      <c r="J17">
+        <v>0.09302257871513717</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.164182666666667</v>
+      </c>
+      <c r="N17">
+        <v>27.492548</v>
+      </c>
+      <c r="O17">
+        <v>0.03970753467660135</v>
+      </c>
+      <c r="P17">
+        <v>0.04986509649035763</v>
+      </c>
+      <c r="Q17">
+        <v>49.56019922463378</v>
+      </c>
+      <c r="R17">
+        <v>446.0417930217039</v>
+      </c>
+      <c r="S17">
+        <v>0.00364795460594006</v>
+      </c>
+      <c r="T17">
+        <v>0.004638579863412202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.408032666666666</v>
+      </c>
+      <c r="H18">
+        <v>16.224098</v>
+      </c>
+      <c r="I18">
+        <v>0.0918705891879434</v>
+      </c>
+      <c r="J18">
+        <v>0.09302257871513717</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>80.32428</v>
+      </c>
+      <c r="N18">
+        <v>240.97284</v>
+      </c>
+      <c r="O18">
+        <v>0.3480374900289019</v>
+      </c>
+      <c r="P18">
+        <v>0.437068761984357</v>
+      </c>
+      <c r="Q18">
+        <v>434.39633016648</v>
+      </c>
+      <c r="R18">
+        <v>3909.566971498319</v>
+      </c>
+      <c r="S18">
+        <v>0.0319744092684482</v>
+      </c>
+      <c r="T18">
+        <v>0.04065726331561739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.408032666666666</v>
+      </c>
+      <c r="H19">
+        <v>16.224098</v>
+      </c>
+      <c r="I19">
+        <v>0.0918705891879434</v>
+      </c>
+      <c r="J19">
+        <v>0.09302257871513717</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.118916</v>
+      </c>
+      <c r="N19">
+        <v>0.356748</v>
+      </c>
+      <c r="O19">
+        <v>0.0005152517540683451</v>
+      </c>
+      <c r="P19">
+        <v>0.0006470580116016202</v>
+      </c>
+      <c r="Q19">
+        <v>0.6431016125893332</v>
+      </c>
+      <c r="R19">
+        <v>5.787914513303998</v>
+      </c>
+      <c r="S19">
+        <v>4.733648222638017E-05</v>
+      </c>
+      <c r="T19">
+        <v>6.019100481747185E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.408032666666666</v>
+      </c>
+      <c r="H20">
+        <v>16.224098</v>
+      </c>
+      <c r="I20">
+        <v>0.0918705891879434</v>
+      </c>
+      <c r="J20">
+        <v>0.09302257871513717</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1470646666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.441194</v>
+      </c>
+      <c r="O20">
+        <v>0.0006372172580769324</v>
+      </c>
+      <c r="P20">
+        <v>0.0008002234416746982</v>
+      </c>
+      <c r="Q20">
+        <v>0.7953305214457776</v>
+      </c>
+      <c r="R20">
+        <v>7.157974693011998</v>
+      </c>
+      <c r="S20">
+        <v>5.854152494025356E-05</v>
+      </c>
+      <c r="T20">
+        <v>7.443884809288259E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.408032666666666</v>
+      </c>
+      <c r="H21">
+        <v>16.224098</v>
+      </c>
+      <c r="I21">
+        <v>0.0918705891879434</v>
+      </c>
+      <c r="J21">
+        <v>0.09302257871513717</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>141.03759</v>
+      </c>
+      <c r="N21">
+        <v>282.07518</v>
+      </c>
+      <c r="O21">
+        <v>0.6111025062823514</v>
+      </c>
+      <c r="P21">
+        <v>0.5116188600720092</v>
+      </c>
+      <c r="Q21">
+        <v>762.7358939479399</v>
+      </c>
+      <c r="R21">
+        <v>4576.415363687639</v>
+      </c>
+      <c r="S21">
+        <v>0.05614234730638851</v>
+      </c>
+      <c r="T21">
+        <v>0.04759210568319722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.186977</v>
+      </c>
+      <c r="H22">
+        <v>4.373953999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.03715193267394234</v>
+      </c>
+      <c r="J22">
+        <v>0.02507852703191198</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>9.164182666666667</v>
+      </c>
+      <c r="N22">
+        <v>27.492548</v>
+      </c>
+      <c r="O22">
+        <v>0.03970753467660135</v>
+      </c>
+      <c r="P22">
+        <v>0.04986509649035763</v>
+      </c>
+      <c r="Q22">
+        <v>20.04185671579867</v>
+      </c>
+      <c r="R22">
+        <v>120.251140294792</v>
+      </c>
+      <c r="S22">
+        <v>0.001475211654953324</v>
+      </c>
+      <c r="T22">
+        <v>0.001250543170282333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.186977</v>
+      </c>
+      <c r="H23">
+        <v>4.373953999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.03715193267394234</v>
+      </c>
+      <c r="J23">
+        <v>0.02507852703191198</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>80.32428</v>
+      </c>
+      <c r="N23">
+        <v>240.97284</v>
+      </c>
+      <c r="O23">
+        <v>0.3480374900289019</v>
+      </c>
+      <c r="P23">
+        <v>0.437068761984357</v>
+      </c>
+      <c r="Q23">
+        <v>175.66735290156</v>
+      </c>
+      <c r="R23">
+        <v>1054.00411740936</v>
+      </c>
+      <c r="S23">
+        <v>0.01293026539756164</v>
+      </c>
+      <c r="T23">
+        <v>0.010961040762229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.186977</v>
+      </c>
+      <c r="H24">
+        <v>4.373953999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.03715193267394234</v>
+      </c>
+      <c r="J24">
+        <v>0.02507852703191198</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.118916</v>
+      </c>
+      <c r="N24">
+        <v>0.356748</v>
+      </c>
+      <c r="O24">
+        <v>0.0005152517540683451</v>
+      </c>
+      <c r="P24">
+        <v>0.0006470580116016202</v>
+      </c>
+      <c r="Q24">
+        <v>0.2600665569319999</v>
+      </c>
+      <c r="R24">
+        <v>1.560399341592</v>
+      </c>
+      <c r="S24">
+        <v>1.914259847727785E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.622726183516645E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2.04768195522278</v>
-      </c>
-      <c r="H17">
-        <v>2.04768195522278</v>
-      </c>
-      <c r="I17">
-        <v>0.04015320024224129</v>
-      </c>
-      <c r="J17">
-        <v>0.04015320024224129</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>141.022086543386</v>
-      </c>
-      <c r="N17">
-        <v>141.022086543386</v>
-      </c>
-      <c r="O17">
-        <v>0.630184710246845</v>
-      </c>
-      <c r="P17">
-        <v>0.630184710246845</v>
-      </c>
-      <c r="Q17">
-        <v>288.7683819027567</v>
-      </c>
-      <c r="R17">
-        <v>288.7683819027567</v>
-      </c>
-      <c r="S17">
-        <v>0.02530393286014037</v>
-      </c>
-      <c r="T17">
-        <v>0.02530393286014037</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.186977</v>
+      </c>
+      <c r="H25">
+        <v>4.373953999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.03715193267394234</v>
+      </c>
+      <c r="J25">
+        <v>0.02507852703191198</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1470646666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.441194</v>
+      </c>
+      <c r="O25">
+        <v>0.0006372172580769324</v>
+      </c>
+      <c r="P25">
+        <v>0.0008002234416746982</v>
+      </c>
+      <c r="Q25">
+        <v>0.3216270435126666</v>
+      </c>
+      <c r="R25">
+        <v>1.929762261076</v>
+      </c>
+      <c r="S25">
+        <v>2.367385267074833E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.006842521360855E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.186977</v>
+      </c>
+      <c r="H26">
+        <v>4.373953999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.03715193267394234</v>
+      </c>
+      <c r="J26">
+        <v>0.02507852703191198</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>141.03759</v>
+      </c>
+      <c r="N26">
+        <v>282.07518</v>
+      </c>
+      <c r="O26">
+        <v>0.6111025062823514</v>
+      </c>
+      <c r="P26">
+        <v>0.5116188600720092</v>
+      </c>
+      <c r="Q26">
+        <v>308.4459654654299</v>
+      </c>
+      <c r="R26">
+        <v>1233.78386186172</v>
+      </c>
+      <c r="S26">
+        <v>0.02270363917027935</v>
+      </c>
+      <c r="T26">
+        <v>0.01283064741235187</v>
       </c>
     </row>
   </sheetData>
